--- a/raw_data/20200818_saline/20200818_Sensor0_Test_2.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_2.xlsx
@@ -1,765 +1,1181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E6528-47DE-4AEE-A237-35551D2CE6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>902.860367</v>
       </c>
       <c r="B2" s="1">
-        <v>0.250795</v>
+        <v>0.25079499999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>899.825000</v>
+        <v>899.82500000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.501000</v>
+        <v>-198.501</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>913.330914</v>
+        <v>913.33091400000001</v>
       </c>
       <c r="G2" s="1">
-        <v>0.253703</v>
+        <v>0.25370300000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>917.025000</v>
+        <v>917.02499999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.273000</v>
+        <v>-168.273</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>923.793524</v>
+        <v>923.79352400000005</v>
       </c>
       <c r="L2" s="1">
-        <v>0.256609</v>
+        <v>0.25660899999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>940.146000</v>
+        <v>940.14599999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.678000</v>
+        <v>-120.678</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>934.278488</v>
+        <v>934.27848800000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.259522</v>
+        <v>0.25952199999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>946.908000</v>
+        <v>946.90800000000002</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.140000</v>
+        <v>-105.14</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>945.156248</v>
+        <v>945.15624800000001</v>
       </c>
       <c r="V2" s="1">
-        <v>0.262543</v>
+        <v>0.26254300000000003</v>
       </c>
       <c r="W2" s="1">
-        <v>953.511000</v>
+        <v>953.51099999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.916000</v>
+        <v>-90.915999999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>955.644121</v>
+        <v>955.64412100000004</v>
       </c>
       <c r="AA2" s="1">
         <v>0.265457</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.977000</v>
+        <v>960.97699999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.817900</v>
+        <v>-80.817899999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>965.951517</v>
+        <v>965.95151699999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.268320</v>
+        <v>0.26832</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.992000</v>
+        <v>965.99199999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.013300</v>
+        <v>-80.013300000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>976.062462</v>
+        <v>976.06246199999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.271128</v>
+        <v>0.27112799999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.071000</v>
+        <v>974.07100000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.169600</v>
+        <v>-87.169600000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>986.321187</v>
+        <v>986.32118700000001</v>
       </c>
       <c r="AP2" s="1">
         <v>0.273978</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.365000</v>
+        <v>983.36500000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.435000</v>
+        <v>-101.435</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>996.962356</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.276934</v>
+        <v>0.27693400000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.786000</v>
+        <v>994.78599999999994</v>
       </c>
       <c r="AW2" s="1">
-        <v>-122.161000</v>
+        <v>-122.161</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>1008.035076</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.280010</v>
+        <v>0.28000999999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.380000</v>
+        <v>1004.38</v>
       </c>
       <c r="BB2" s="1">
-        <v>-140.211000</v>
+        <v>-140.21100000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>1018.974806</v>
+        <v>1018.9748059999999</v>
       </c>
       <c r="BE2" s="1">
         <v>0.283049</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.932000</v>
+        <v>-221.93199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>1029.669082</v>
+        <v>1029.6690819999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.286019</v>
+        <v>0.28601900000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1126.750000</v>
+        <v>1126.75</v>
       </c>
       <c r="BL2" s="1">
-        <v>-353.038000</v>
+        <v>-353.03800000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>1041.045288</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.289179</v>
+        <v>0.28917900000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1254.560000</v>
+        <v>1254.56</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-555.871000</v>
+        <v>-555.87099999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>1051.394315</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.292054</v>
+        <v>0.29205399999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1398.390000</v>
+        <v>1398.39</v>
       </c>
       <c r="BV2" s="1">
-        <v>-772.176000</v>
+        <v>-772.17600000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>1062.530987</v>
+        <v>1062.5309870000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.295147</v>
+        <v>0.29514699999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1555.810000</v>
+        <v>1555.81</v>
       </c>
       <c r="CA2" s="1">
-        <v>-997.921000</v>
+        <v>-997.92100000000005</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>1073.777773</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.298272</v>
+        <v>0.29827199999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1952.420000</v>
+        <v>1952.42</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1522.460000</v>
+        <v>-1522.46</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>903.296351</v>
+        <v>903.29635099999996</v>
       </c>
       <c r="B3" s="1">
-        <v>0.250916</v>
+        <v>0.25091599999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>899.770000</v>
+        <v>899.77</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.373000</v>
+        <v>-198.37299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>913.702912</v>
+        <v>913.70291199999997</v>
       </c>
       <c r="G3" s="1">
-        <v>0.253806</v>
+        <v>0.25380599999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>917.004000</v>
+        <v>917.00400000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.474000</v>
+        <v>-168.47399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>924.461139</v>
@@ -768,964 +1184,964 @@
         <v>0.256795</v>
       </c>
       <c r="M3" s="1">
-        <v>940.104000</v>
+        <v>940.10400000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.790000</v>
+        <v>-120.79</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>934.981316</v>
+        <v>934.98131599999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.259717</v>
+        <v>0.25971699999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>946.944000</v>
+        <v>946.94399999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.141000</v>
+        <v>-105.14100000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>945.586246</v>
+        <v>945.58624599999996</v>
       </c>
       <c r="V3" s="1">
-        <v>0.262663</v>
+        <v>0.26266299999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>953.595000</v>
+        <v>953.59500000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.910500</v>
+        <v>-90.910499999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>956.063737</v>
+        <v>956.06373699999995</v>
       </c>
       <c r="AA3" s="1">
         <v>0.265573</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.957000</v>
+        <v>960.95699999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.731700</v>
+        <v>-80.731700000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>966.298683</v>
+        <v>966.29868299999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.268416</v>
+        <v>0.26841599999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.003000</v>
+        <v>966.00300000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.986700</v>
+        <v>-79.986699999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>976.443853</v>
+        <v>976.44385299999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.271234</v>
+        <v>0.27123399999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.086000</v>
+        <v>974.08600000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.176600</v>
+        <v>-87.176599999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>986.716032</v>
+        <v>986.71603200000004</v>
       </c>
       <c r="AP3" s="1">
         <v>0.274088</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.366000</v>
+        <v>983.36599999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.443000</v>
+        <v>-101.443</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>997.369075</v>
+        <v>997.36907499999995</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.277047</v>
+        <v>0.27704699999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.805000</v>
+        <v>994.80499999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-122.154000</v>
+        <v>-122.154</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>1008.471026</v>
+        <v>1008.4710260000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.280131</v>
+        <v>0.28013100000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.390000</v>
+        <v>1004.39</v>
       </c>
       <c r="BB3" s="1">
-        <v>-140.248000</v>
+        <v>-140.24799999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>1019.086432</v>
+        <v>1019.0864319999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.283080</v>
+        <v>0.28308</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.906000</v>
+        <v>-221.90600000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>1030.047532</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.286124</v>
+        <v>0.28612399999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1126.740000</v>
+        <v>1126.74</v>
       </c>
       <c r="BL3" s="1">
-        <v>-353.063000</v>
+        <v>-353.06299999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>1041.477799</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.289299</v>
+        <v>0.28929899999999997</v>
       </c>
       <c r="BP3" s="1">
-        <v>1254.590000</v>
+        <v>1254.5899999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-555.893000</v>
+        <v>-555.89300000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>1051.859066</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.292183</v>
+        <v>0.29218300000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1398.500000</v>
+        <v>1398.5</v>
       </c>
       <c r="BV3" s="1">
-        <v>-772.421000</v>
+        <v>-772.42100000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>1063.002213</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.295278</v>
+        <v>0.29527799999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1555.720000</v>
+        <v>1555.72</v>
       </c>
       <c r="CA3" s="1">
-        <v>-998.100000</v>
+        <v>-998.1</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>1074.344236</v>
+        <v>1074.3442359999999</v>
       </c>
       <c r="CD3" s="1">
         <v>0.298429</v>
       </c>
       <c r="CE3" s="1">
-        <v>1952.620000</v>
+        <v>1952.62</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1522.690000</v>
+        <v>-1522.69</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>903.637607</v>
       </c>
       <c r="B4" s="1">
-        <v>0.251010</v>
+        <v>0.25101000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>899.758000</v>
+        <v>899.75800000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.670000</v>
+        <v>-198.67</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>914.359616</v>
+        <v>914.35961599999996</v>
       </c>
       <c r="G4" s="1">
-        <v>0.253989</v>
+        <v>0.25398900000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>917.306000</v>
+        <v>917.30600000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.391000</v>
+        <v>-168.39099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>924.843058</v>
+        <v>924.84305800000004</v>
       </c>
       <c r="L4" s="1">
-        <v>0.256901</v>
+        <v>0.25690099999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>940.031000</v>
+        <v>940.03099999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.650000</v>
+        <v>-120.65</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>935.359732</v>
+        <v>935.35973200000001</v>
       </c>
       <c r="Q4" s="1">
         <v>0.259822</v>
       </c>
       <c r="R4" s="1">
-        <v>946.940000</v>
+        <v>946.94</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.184000</v>
+        <v>-105.184</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>945.936460</v>
+        <v>945.93646000000001</v>
       </c>
       <c r="V4" s="1">
-        <v>0.262760</v>
+        <v>0.26275999999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>953.490000</v>
+        <v>953.49</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.926400</v>
+        <v>-90.926400000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>956.407959</v>
+        <v>956.40795900000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.265669</v>
+        <v>0.26566899999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.998000</v>
+        <v>960.99800000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.838400</v>
+        <v>-80.838399999999993</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>966.647370</v>
+        <v>966.64737000000002</v>
       </c>
       <c r="AF4" s="1">
         <v>0.268513</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.962000</v>
+        <v>965.96199999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.999300</v>
+        <v>-79.999300000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>976.866979</v>
+        <v>976.86697900000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.271352</v>
+        <v>0.27135199999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.070000</v>
+        <v>974.07</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.180900</v>
+        <v>-87.180899999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>987.127221</v>
+        <v>987.12722099999996</v>
       </c>
       <c r="AP4" s="1">
         <v>0.274202</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.356000</v>
+        <v>983.35599999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.423000</v>
+        <v>-101.423</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>997.733634</v>
+        <v>997.73363400000005</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.277148</v>
+        <v>0.27714800000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.788000</v>
+        <v>994.78800000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-122.151000</v>
+        <v>-122.151</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>1008.828147</v>
+        <v>1008.8281469999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.280230</v>
+        <v>0.28022999999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.400000</v>
+        <v>1004.4</v>
       </c>
       <c r="BB4" s="1">
-        <v>-140.237000</v>
+        <v>-140.23699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>1019.433606</v>
+        <v>1019.4336060000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.283176</v>
+        <v>0.28317599999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.930000</v>
+        <v>-221.93</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>1030.423462</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.286229</v>
+        <v>0.28622900000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1126.730000</v>
+        <v>1126.73</v>
       </c>
       <c r="BL4" s="1">
-        <v>-353.054000</v>
+        <v>-353.05399999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>1041.898407</v>
+        <v>1041.8984069999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.289416</v>
+        <v>0.28941600000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1254.590000</v>
+        <v>1254.5899999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-555.953000</v>
+        <v>-555.95299999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>1052.290585</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.292303</v>
+        <v>0.29230299999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1398.590000</v>
+        <v>1398.59</v>
       </c>
       <c r="BV4" s="1">
-        <v>-772.564000</v>
+        <v>-772.56399999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>1063.434698</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.295399</v>
+        <v>0.29539900000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1555.730000</v>
+        <v>1555.73</v>
       </c>
       <c r="CA4" s="1">
-        <v>-998.079000</v>
+        <v>-998.07899999999995</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>1074.863019</v>
+        <v>1074.8630189999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.298573</v>
+        <v>0.29857299999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1952.390000</v>
+        <v>1952.39</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1523.660000</v>
+        <v>-1523.66</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>904.285870</v>
+        <v>904.28587000000005</v>
       </c>
       <c r="B5" s="1">
         <v>0.251191</v>
       </c>
       <c r="C5" s="1">
-        <v>899.577000</v>
+        <v>899.577</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.298000</v>
+        <v>-198.298</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>914.736575</v>
+        <v>914.73657500000002</v>
       </c>
       <c r="G5" s="1">
-        <v>0.254093</v>
+        <v>0.25409300000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>916.898000</v>
+        <v>916.89800000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.446000</v>
+        <v>-168.446</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>925.189298</v>
+        <v>925.18929800000001</v>
       </c>
       <c r="L5" s="1">
-        <v>0.256997</v>
+        <v>0.25699699999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>940.271000</v>
+        <v>940.27099999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.043000</v>
+        <v>-121.04300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>935.708916</v>
+        <v>935.70891600000004</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.259919</v>
+        <v>0.25991900000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>946.885000</v>
+        <v>946.88499999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.173000</v>
+        <v>-105.173</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>946.280149</v>
+        <v>946.28014900000005</v>
       </c>
       <c r="V5" s="1">
-        <v>0.262856</v>
+        <v>0.26285599999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>953.531000</v>
+        <v>953.53099999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.939800</v>
+        <v>-90.939800000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>956.825095</v>
+        <v>956.82509500000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.265785</v>
+        <v>0.26578499999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.048000</v>
+        <v>961.048</v>
       </c>
       <c r="AC5" s="1">
-        <v>-81.029300</v>
+        <v>-81.029300000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>967.059546</v>
+        <v>967.05954599999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.268628</v>
+        <v>0.26862799999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.021000</v>
+        <v>966.02099999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.055000</v>
+        <v>-80.055000000000007</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>977.164880</v>
+        <v>977.16488000000004</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.271435</v>
+        <v>0.27143499999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.078000</v>
+        <v>974.07799999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.181000</v>
+        <v>-87.180999999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>987.434207</v>
+        <v>987.43420700000001</v>
       </c>
       <c r="AP5" s="1">
         <v>0.274287</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.350000</v>
+        <v>983.35</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.443000</v>
+        <v>-101.443</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>998.098726</v>
+        <v>998.09872600000006</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.277250</v>
+        <v>0.27725</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.780000</v>
+        <v>994.78</v>
       </c>
       <c r="AW5" s="1">
-        <v>-122.191000</v>
+        <v>-122.191</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>1009.185762</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.280329</v>
+        <v>0.28032899999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.380000</v>
+        <v>1004.38</v>
       </c>
       <c r="BB5" s="1">
-        <v>-140.223000</v>
+        <v>-140.22300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>1019.794692</v>
+        <v>1019.7946920000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.283276</v>
+        <v>0.28327599999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.140000</v>
+        <v>1049.1400000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.906000</v>
+        <v>-221.90600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>1031.175902</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.286438</v>
+        <v>0.28643800000000003</v>
       </c>
       <c r="BK5" s="1">
-        <v>1126.750000</v>
+        <v>1126.75</v>
       </c>
       <c r="BL5" s="1">
-        <v>-353.065000</v>
+        <v>-353.065</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>1042.296727</v>
+        <v>1042.2967269999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.289527</v>
+        <v>0.28952699999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1254.580000</v>
+        <v>1254.58</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-555.951000</v>
+        <v>-555.95100000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>1052.699288</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.292416</v>
+        <v>0.29241600000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1398.460000</v>
+        <v>1398.46</v>
       </c>
       <c r="BV5" s="1">
-        <v>-772.755000</v>
+        <v>-772.755</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>1063.853354</v>
+        <v>1063.8533540000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.295515</v>
+        <v>0.29551500000000003</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1555.710000</v>
+        <v>1555.71</v>
       </c>
       <c r="CA5" s="1">
-        <v>-998.043000</v>
+        <v>-998.04300000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>1075.679434</v>
+        <v>1075.6794339999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.298800</v>
+        <v>0.29880000000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1953.630000</v>
+        <v>1953.63</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1524.120000</v>
+        <v>-1524.12</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>904.662829</v>
+        <v>904.66282899999999</v>
       </c>
       <c r="B6" s="1">
-        <v>0.251295</v>
+        <v>0.25129499999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>899.815000</v>
+        <v>899.81500000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.512000</v>
+        <v>-198.512</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>915.079310</v>
+        <v>915.07930999999996</v>
       </c>
       <c r="G6" s="1">
         <v>0.254189</v>
       </c>
       <c r="H6" s="1">
-        <v>917.122000</v>
+        <v>917.12199999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.295000</v>
+        <v>-168.29499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>925.534512</v>
+        <v>925.53451199999995</v>
       </c>
       <c r="L6" s="1">
-        <v>0.257093</v>
+        <v>0.25709300000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>940.250000</v>
+        <v>940.25</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.831000</v>
+        <v>-120.831</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>936.059587</v>
+        <v>936.05958699999996</v>
       </c>
       <c r="Q6" s="1">
         <v>0.260017</v>
       </c>
       <c r="R6" s="1">
-        <v>946.892000</v>
+        <v>946.89200000000005</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.130000</v>
+        <v>-105.13</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>946.703732</v>
+        <v>946.70373199999995</v>
       </c>
       <c r="V6" s="1">
-        <v>0.262973</v>
+        <v>0.26297300000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.499000</v>
+        <v>953.49900000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.911000</v>
+        <v>-90.911000000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>957.105831</v>
+        <v>957.10583099999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.265863</v>
+        <v>0.26586300000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.961000</v>
+        <v>960.96100000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.814300</v>
+        <v>-80.814300000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>967.352221</v>
+        <v>967.35222099999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.268709</v>
+        <v>0.26870899999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.033000</v>
+        <v>966.03300000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.016500</v>
+        <v>-80.016499999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>977.514220</v>
+        <v>977.51422000000002</v>
       </c>
       <c r="AK6" s="1">
         <v>0.271532</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.081000</v>
+        <v>974.08100000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.169800</v>
+        <v>-87.169799999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>987.795790</v>
+        <v>987.79579000000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.274388</v>
+        <v>0.27438800000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.353000</v>
+        <v>983.35299999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.441000</v>
+        <v>-101.441</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>998.465232</v>
+        <v>998.46523200000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.277351</v>
+        <v>0.27735100000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.794000</v>
+        <v>994.79399999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-122.162000</v>
+        <v>-122.16200000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>1009.906449</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.280530</v>
+        <v>0.28053</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.390000</v>
+        <v>1004.39</v>
       </c>
       <c r="BB6" s="1">
-        <v>-140.243000</v>
+        <v>-140.24299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>1020.515875</v>
+        <v>1020.5158750000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.283477</v>
+        <v>0.28347699999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.949000</v>
+        <v>-221.94900000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>1031.550404</v>
+        <v>1031.5504040000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.286542</v>
+        <v>0.28654200000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1126.810000</v>
+        <v>1126.81</v>
       </c>
       <c r="BL6" s="1">
-        <v>-353.064000</v>
+        <v>-353.06400000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>1042.717799</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.289644</v>
+        <v>0.28964400000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1254.640000</v>
+        <v>1254.6400000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-555.990000</v>
+        <v>-555.99</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>1053.130840</v>
+        <v>1053.13084</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.292536</v>
+        <v>0.29253600000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1398.350000</v>
+        <v>1398.35</v>
       </c>
       <c r="BV6" s="1">
-        <v>-772.863000</v>
+        <v>-772.86300000000006</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>1064.567065</v>
@@ -1734,180 +2150,180 @@
         <v>0.295713</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1555.650000</v>
+        <v>1555.65</v>
       </c>
       <c r="CA6" s="1">
-        <v>-998.158000</v>
+        <v>-998.15800000000002</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>1075.899199</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.298861</v>
+        <v>0.29886099999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1954.020000</v>
+        <v>1954.02</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1522.750000</v>
+        <v>-1522.75</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>905.004827</v>
+        <v>905.00482699999998</v>
       </c>
       <c r="B7" s="1">
-        <v>0.251390</v>
+        <v>0.25139</v>
       </c>
       <c r="C7" s="1">
-        <v>899.710000</v>
+        <v>899.71</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.159000</v>
+        <v>-198.15899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>915.427038</v>
+        <v>915.42703800000004</v>
       </c>
       <c r="G7" s="1">
-        <v>0.254285</v>
+        <v>0.25428499999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>917.095000</v>
+        <v>917.09500000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.305000</v>
+        <v>-168.30500000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>925.957568</v>
+        <v>925.95756800000004</v>
       </c>
       <c r="L7" s="1">
-        <v>0.257210</v>
+        <v>0.25720999999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>940.140000</v>
+        <v>940.14</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.794000</v>
+        <v>-120.794</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>936.475235</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.260132</v>
+        <v>0.26013199999999997</v>
       </c>
       <c r="R7" s="1">
-        <v>946.939000</v>
+        <v>946.93899999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.117000</v>
+        <v>-105.117</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>946.975044</v>
+        <v>946.97504400000003</v>
       </c>
       <c r="V7" s="1">
-        <v>0.263049</v>
+        <v>0.26304899999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>953.514000</v>
+        <v>953.51400000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.947000</v>
+        <v>-90.947000000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>957.454556</v>
+        <v>957.45455600000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.265960</v>
+        <v>0.26595999999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.978000</v>
+        <v>960.97799999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.846900</v>
+        <v>-80.846900000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>967.694959</v>
+        <v>967.69495900000004</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.268804</v>
+        <v>0.26880399999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.999000</v>
+        <v>965.99900000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.045900</v>
+        <v>-80.045900000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>977.864398</v>
+        <v>977.86439800000005</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.271629</v>
+        <v>0.27162900000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.095000</v>
+        <v>974.09500000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.178400</v>
+        <v>-87.178399999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>988.157869</v>
+        <v>988.15786900000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.274488</v>
+        <v>0.27448800000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.349000</v>
+        <v>983.34900000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.447000</v>
+        <v>-101.447</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>999.194351</v>
+        <v>999.19435099999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.277554</v>
+        <v>0.27755400000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.791000</v>
+        <v>994.79100000000005</v>
       </c>
       <c r="AW7" s="1">
-        <v>-122.190000</v>
+        <v>-122.19</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>1010.290386</v>
@@ -1916,330 +2332,330 @@
         <v>0.280636</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.400000</v>
+        <v>1004.4</v>
       </c>
       <c r="BB7" s="1">
-        <v>-140.218000</v>
+        <v>-140.21799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>1020.877776</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.283577</v>
+        <v>0.28357700000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.917000</v>
+        <v>-221.917</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>1031.923860</v>
+        <v>1031.9238600000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.286646</v>
+        <v>0.28664600000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1126.740000</v>
+        <v>1126.74</v>
       </c>
       <c r="BL7" s="1">
-        <v>-353.075000</v>
+        <v>-353.07499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>1043.410709</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.289836</v>
+        <v>0.28983599999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1254.600000</v>
+        <v>1254.5999999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-555.977000</v>
+        <v>-555.97699999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>1053.867367</v>
+        <v>1053.8673670000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.292741</v>
+        <v>0.29274099999999997</v>
       </c>
       <c r="BU7" s="1">
-        <v>1398.260000</v>
+        <v>1398.26</v>
       </c>
       <c r="BV7" s="1">
-        <v>-772.870000</v>
+        <v>-772.87</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>1064.703465</v>
+        <v>1064.7034650000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.295751</v>
+        <v>0.29575099999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1555.790000</v>
+        <v>1555.79</v>
       </c>
       <c r="CA7" s="1">
-        <v>-998.115000</v>
+        <v>-998.11500000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>1076.415529</v>
+        <v>1076.4155290000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.299004</v>
+        <v>0.29900399999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1953.870000</v>
+        <v>1953.87</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1522.480000</v>
+        <v>-1522.48</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>905.346315</v>
       </c>
       <c r="B8" s="1">
-        <v>0.251485</v>
+        <v>0.25148500000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>899.682000</v>
+        <v>899.68200000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.229000</v>
+        <v>-198.22900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>915.836205</v>
+        <v>915.83620499999995</v>
       </c>
       <c r="G8" s="1">
-        <v>0.254399</v>
+        <v>0.25439899999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>916.915000</v>
+        <v>916.91499999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.284000</v>
+        <v>-168.28399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>926.234337</v>
+        <v>926.23433699999998</v>
       </c>
       <c r="L8" s="1">
-        <v>0.257287</v>
+        <v>0.25728699999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>940.297000</v>
+        <v>940.29700000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.827000</v>
+        <v>-120.827</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>936.771874</v>
+        <v>936.77187400000003</v>
       </c>
       <c r="Q8" s="1">
         <v>0.260214</v>
       </c>
       <c r="R8" s="1">
-        <v>946.952000</v>
+        <v>946.952</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.111000</v>
+        <v>-105.111</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>947.319268</v>
+        <v>947.31926799999997</v>
       </c>
       <c r="V8" s="1">
-        <v>0.263144</v>
+        <v>0.26314399999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>953.507000</v>
+        <v>953.50699999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.964700</v>
+        <v>-90.964699999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>957.804726</v>
+        <v>957.80472599999996</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.266057</v>
+        <v>0.26605699999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.906000</v>
+        <v>960.90599999999995</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.786600</v>
+        <v>-80.786600000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>968.040633</v>
+        <v>968.04063299999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.268900</v>
+        <v>0.26889999999999997</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.033000</v>
+        <v>966.03300000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.035400</v>
+        <v>-80.035399999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>978.559786</v>
+        <v>978.55978600000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.271822</v>
+        <v>0.27182200000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.069000</v>
+        <v>974.06899999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.154200</v>
+        <v>-87.154200000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>988.926669</v>
+        <v>988.92666899999995</v>
       </c>
       <c r="AP8" s="1">
         <v>0.274702</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.363000</v>
+        <v>983.36300000000006</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.416000</v>
+        <v>-101.416</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>999.585231</v>
+        <v>999.58523100000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.277663</v>
+        <v>0.27766299999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.768000</v>
+        <v>994.76800000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-122.170000</v>
+        <v>-122.17</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>1010.648497</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.280736</v>
+        <v>0.28073599999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.400000</v>
+        <v>1004.4</v>
       </c>
       <c r="BB8" s="1">
-        <v>-140.211000</v>
+        <v>-140.21100000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>1021.241026</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.283678</v>
+        <v>0.28367799999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.140000</v>
+        <v>1049.1400000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.902000</v>
+        <v>-221.90199999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>1032.613795</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.286837</v>
+        <v>0.28683700000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1126.780000</v>
+        <v>1126.78</v>
       </c>
       <c r="BL8" s="1">
-        <v>-353.080000</v>
+        <v>-353.08</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>1043.533255</v>
+        <v>1043.5332550000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.289870</v>
+        <v>0.28987000000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1254.600000</v>
+        <v>1254.5999999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-555.951000</v>
+        <v>-555.95100000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>1054.008075</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.292780</v>
+        <v>0.29277999999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1398.060000</v>
+        <v>1398.06</v>
       </c>
       <c r="BV8" s="1">
-        <v>-772.923000</v>
+        <v>-772.923</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>1065.148874</v>
@@ -2248,225 +2664,225 @@
         <v>0.295875</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1555.760000</v>
+        <v>1555.76</v>
       </c>
       <c r="CA8" s="1">
-        <v>-998.214000</v>
+        <v>-998.21400000000006</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>1076.967080</v>
+        <v>1076.9670799999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.299158</v>
+        <v>0.29915799999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1953.720000</v>
+        <v>1953.72</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1523.820000</v>
+        <v>-1523.82</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>905.767418</v>
+        <v>905.76741800000002</v>
       </c>
       <c r="B9" s="1">
-        <v>0.251602</v>
+        <v>0.25160199999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>899.719000</v>
+        <v>899.71900000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.976000</v>
+        <v>-197.976</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>916.118925</v>
+        <v>916.11892499999999</v>
       </c>
       <c r="G9" s="1">
-        <v>0.254477</v>
+        <v>0.25447700000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>916.782000</v>
+        <v>916.78200000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.104000</v>
+        <v>-168.10400000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>926.579553</v>
+        <v>926.57955300000003</v>
       </c>
       <c r="L9" s="1">
-        <v>0.257383</v>
+        <v>0.25738299999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>940.222000</v>
+        <v>940.22199999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.740000</v>
+        <v>-120.74</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>937.123505</v>
+        <v>937.12350500000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.260312</v>
+        <v>0.26031199999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>946.986000</v>
+        <v>946.98599999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.108000</v>
+        <v>-105.108</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>947.663524</v>
+        <v>947.66352400000005</v>
       </c>
       <c r="V9" s="1">
-        <v>0.263240</v>
+        <v>0.26323999999999997</v>
       </c>
       <c r="W9" s="1">
-        <v>953.528000</v>
+        <v>953.52800000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.976600</v>
+        <v>-90.976600000000005</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>958.501573</v>
+        <v>958.50157300000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.266250</v>
+        <v>0.26624999999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.858000</v>
+        <v>960.85799999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.869900</v>
+        <v>-80.869900000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>968.726601</v>
+        <v>968.72660099999996</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.269091</v>
+        <v>0.26909100000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.015000</v>
+        <v>966.01499999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.989200</v>
+        <v>-79.989199999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>978.910989</v>
+        <v>978.91098899999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.271920</v>
+        <v>0.27192</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.073000</v>
+        <v>974.07299999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.186800</v>
+        <v>-87.186800000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>989.235220</v>
+        <v>989.23522000000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.274788</v>
+        <v>0.27478799999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.363000</v>
+        <v>983.36300000000006</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.440000</v>
+        <v>-101.44</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>999.951246</v>
+        <v>999.95124599999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.277764</v>
+        <v>0.27776400000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.766000</v>
+        <v>994.76599999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-122.178000</v>
+        <v>-122.178</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>1011.314591</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.280921</v>
+        <v>0.28092099999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.380000</v>
+        <v>1004.38</v>
       </c>
       <c r="BB9" s="1">
-        <v>-140.206000</v>
+        <v>-140.20599999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>1021.943373</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.283873</v>
+        <v>0.28387299999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.896000</v>
+        <v>-221.89599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>1033.050771</v>
+        <v>1033.0507709999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.286959</v>
+        <v>0.28695900000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1126.780000</v>
+        <v>1126.78</v>
       </c>
       <c r="BL9" s="1">
-        <v>-353.058000</v>
+        <v>-353.05799999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>1043.960773</v>
@@ -2475,362 +2891,362 @@
         <v>0.289989</v>
       </c>
       <c r="BP9" s="1">
-        <v>1254.580000</v>
+        <v>1254.58</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-555.974000</v>
+        <v>-555.97400000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>1054.420902</v>
+        <v>1054.4209020000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.292895</v>
+        <v>0.29289500000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1397.810000</v>
+        <v>1397.81</v>
       </c>
       <c r="BV9" s="1">
-        <v>-772.760000</v>
+        <v>-772.76</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>1065.582376</v>
+        <v>1065.5823760000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.295995</v>
+        <v>0.29599500000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1555.820000</v>
+        <v>1555.82</v>
       </c>
       <c r="CA9" s="1">
-        <v>-998.272000</v>
+        <v>-998.27200000000005</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>1077.498760</v>
+        <v>1077.4987599999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.299305</v>
+        <v>0.29930499999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1953.530000</v>
+        <v>1953.53</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1522.520000</v>
+        <v>-1522.52</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>906.035259</v>
       </c>
       <c r="B10" s="1">
-        <v>0.251676</v>
+        <v>0.25167600000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>899.762000</v>
+        <v>899.76199999999994</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.247000</v>
+        <v>-198.24700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>916.467117</v>
+        <v>916.46711700000003</v>
       </c>
       <c r="G10" s="1">
-        <v>0.254574</v>
+        <v>0.25457400000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>916.842000</v>
+        <v>916.84199999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.219000</v>
+        <v>-168.21899999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>926.925760</v>
+        <v>926.92575999999997</v>
       </c>
       <c r="L10" s="1">
-        <v>0.257479</v>
+        <v>0.25747900000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>940.292000</v>
+        <v>940.29200000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.841000</v>
+        <v>-120.84099999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>937.472193</v>
+        <v>937.47219299999995</v>
       </c>
       <c r="Q10" s="1">
         <v>0.260409</v>
       </c>
       <c r="R10" s="1">
-        <v>946.918000</v>
+        <v>946.91800000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.161000</v>
+        <v>-105.161</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>948.349963</v>
       </c>
       <c r="V10" s="1">
-        <v>0.263431</v>
+        <v>0.26343100000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>953.527000</v>
+        <v>953.52700000000004</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.988600</v>
+        <v>-90.988600000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>958.849929</v>
+        <v>958.84992899999997</v>
       </c>
       <c r="AA10" s="1">
         <v>0.266347</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.994000</v>
+        <v>960.99400000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.783000</v>
+        <v>-80.783000000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>969.070327</v>
+        <v>969.07032700000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.269186</v>
+        <v>0.26918599999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.039000</v>
+        <v>966.03899999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.012000</v>
+        <v>-80.012</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>979.257162</v>
+        <v>979.25716199999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.272016</v>
+        <v>0.27201599999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.079000</v>
+        <v>974.07899999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.185000</v>
+        <v>-87.185000000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>989.903293</v>
+        <v>989.90329299999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.274973</v>
+        <v>0.27497300000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.373000</v>
+        <v>983.37300000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.439000</v>
+        <v>-101.43899999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>1000.623360</v>
+        <v>1000.62336</v>
       </c>
       <c r="AU10" s="1">
         <v>0.277951</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.791000</v>
+        <v>994.79100000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-122.151000</v>
+        <v>-122.151</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>1011.763471</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.281045</v>
+        <v>0.28104499999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.380000</v>
+        <v>1004.38</v>
       </c>
       <c r="BB10" s="1">
-        <v>-140.206000</v>
+        <v>-140.20599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>1022.349611</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.283986</v>
+        <v>0.28398600000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.928000</v>
+        <v>-221.928</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>1033.425747</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.287063</v>
+        <v>0.28706300000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1126.710000</v>
+        <v>1126.71</v>
       </c>
       <c r="BL10" s="1">
-        <v>-353.075000</v>
+        <v>-353.07499999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>1044.358902</v>
+        <v>1044.3589019999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.290100</v>
+        <v>0.29010000000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1254.610000</v>
+        <v>1254.6099999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-555.993000</v>
+        <v>-555.99300000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>1054.842518</v>
+        <v>1054.8425179999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.293012</v>
+        <v>0.29301199999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1397.840000</v>
+        <v>1397.84</v>
       </c>
       <c r="BV10" s="1">
-        <v>-772.402000</v>
+        <v>-772.40200000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>1066.003511</v>
+        <v>1066.0035109999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.296112</v>
+        <v>0.29611199999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1555.810000</v>
+        <v>1555.81</v>
       </c>
       <c r="CA10" s="1">
-        <v>-998.193000</v>
+        <v>-998.19299999999998</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>1078.015126</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.299449</v>
+        <v>0.29944900000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1954.210000</v>
+        <v>1954.21</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1523.220000</v>
+        <v>-1523.22</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>906.378490</v>
+        <v>906.37849000000006</v>
       </c>
       <c r="B11" s="1">
         <v>0.251772</v>
       </c>
       <c r="C11" s="1">
-        <v>899.696000</v>
+        <v>899.69600000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.314000</v>
+        <v>-198.31399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>916.815804</v>
+        <v>916.81580399999996</v>
       </c>
       <c r="G11" s="1">
-        <v>0.254671</v>
+        <v>0.25467099999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>916.916000</v>
+        <v>916.91600000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.132000</v>
+        <v>-168.13200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>927.624126</v>
+        <v>927.62412600000005</v>
       </c>
       <c r="L11" s="1">
-        <v>0.257673</v>
+        <v>0.25767299999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>940.330000</v>
+        <v>940.33</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.816000</v>
+        <v>-120.816</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>938.168364</v>
@@ -2839,148 +3255,148 @@
         <v>0.260602</v>
       </c>
       <c r="R11" s="1">
-        <v>946.918000</v>
+        <v>946.91800000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.135000</v>
+        <v>-105.13500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>948.695171</v>
+        <v>948.69517099999996</v>
       </c>
       <c r="V11" s="1">
-        <v>0.263526</v>
+        <v>0.26352599999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>953.527000</v>
+        <v>953.52700000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.924100</v>
+        <v>-90.924099999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>959.196499</v>
+        <v>959.19649900000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.266443</v>
+        <v>0.26644299999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.014000</v>
+        <v>961.01400000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.829300</v>
+        <v>-80.829300000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>969.413559</v>
+        <v>969.41355899999996</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.269282</v>
+        <v>0.26928200000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.046000</v>
+        <v>966.04600000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.036800</v>
+        <v>-80.036799999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>979.919321</v>
+        <v>979.91932099999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.272200</v>
+        <v>0.2722</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.069000</v>
+        <v>974.06899999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.185300</v>
+        <v>-87.185299999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>990.344236</v>
+        <v>990.34423600000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.275096</v>
+        <v>0.27509600000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.379000</v>
+        <v>983.37900000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.447000</v>
+        <v>-101.447</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>1001.043437</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.278068</v>
+        <v>0.27806799999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.765000</v>
+        <v>994.76499999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-122.173000</v>
+        <v>-122.173</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>1012.116623</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.281144</v>
+        <v>0.28114400000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.370000</v>
+        <v>1004.37</v>
       </c>
       <c r="BB11" s="1">
-        <v>-140.205000</v>
+        <v>-140.20500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>1022.711664</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.284087</v>
+        <v>0.28408699999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.914000</v>
+        <v>-221.91399999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>1033.801250</v>
+        <v>1033.80125</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.287167</v>
+        <v>0.28716700000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1126.730000</v>
+        <v>1126.73</v>
       </c>
       <c r="BL11" s="1">
-        <v>-353.067000</v>
+        <v>-353.06700000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>1044.779667</v>
@@ -2989,195 +3405,195 @@
         <v>0.290217</v>
       </c>
       <c r="BP11" s="1">
-        <v>1254.580000</v>
+        <v>1254.58</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-555.951000</v>
+        <v>-555.95100000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>1055.668373</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.293241</v>
+        <v>0.29324099999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1398.000000</v>
+        <v>1398</v>
       </c>
       <c r="BV11" s="1">
-        <v>-772.314000</v>
+        <v>-772.31399999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>1066.426567</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.296230</v>
+        <v>0.29622999999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1555.790000</v>
+        <v>1555.79</v>
       </c>
       <c r="CA11" s="1">
-        <v>-998.214000</v>
+        <v>-998.21400000000006</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>1078.569159</v>
+        <v>1078.5691589999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.299603</v>
+        <v>0.29960300000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1953.400000</v>
+        <v>1953.4</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1523.800000</v>
+        <v>-1523.8</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>907.056025</v>
+        <v>907.05602499999998</v>
       </c>
       <c r="B12" s="1">
-        <v>0.251960</v>
+        <v>0.25196000000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>899.706000</v>
+        <v>899.70600000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.454000</v>
+        <v>-198.45400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>917.506732</v>
+        <v>917.50673200000006</v>
       </c>
       <c r="G12" s="1">
-        <v>0.254863</v>
+        <v>0.25486300000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>917.317000</v>
+        <v>917.31700000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.819000</v>
+        <v>-168.81899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>927.971325</v>
+        <v>927.97132499999998</v>
       </c>
       <c r="L12" s="1">
-        <v>0.257770</v>
+        <v>0.25777</v>
       </c>
       <c r="M12" s="1">
-        <v>940.161000</v>
+        <v>940.16099999999994</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.835000</v>
+        <v>-120.83499999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>938.516306</v>
+        <v>938.51630599999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.260699</v>
+        <v>0.26069900000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>946.925000</v>
+        <v>946.92499999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.124000</v>
+        <v>-105.124</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>949.036945</v>
+        <v>949.03694499999995</v>
       </c>
       <c r="V12" s="1">
-        <v>0.263621</v>
+        <v>0.26362099999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>953.520000</v>
+        <v>953.52</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.964500</v>
+        <v>-90.964500000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>959.850725</v>
+        <v>959.85072500000001</v>
       </c>
       <c r="AA12" s="1">
         <v>0.266625</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.873000</v>
+        <v>960.87300000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.860800</v>
+        <v>-80.860799999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>970.066330</v>
+        <v>970.06632999999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.269463</v>
+        <v>0.26946300000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.019000</v>
+        <v>966.01900000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.038000</v>
+        <v>-80.037999999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>980.303256</v>
+        <v>980.30325600000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.272306</v>
+        <v>0.27230599999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.065000</v>
+        <v>974.06500000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.147100</v>
+        <v>-87.147099999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>990.705830</v>
+        <v>990.70582999999999</v>
       </c>
       <c r="AP12" s="1">
         <v>0.275196</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.377000</v>
+        <v>983.37699999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.445000</v>
+        <v>-101.44499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>1001.409982</v>
@@ -3186,88 +3602,88 @@
         <v>0.278169</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.800000</v>
+        <v>994.8</v>
       </c>
       <c r="AW12" s="1">
-        <v>-122.171000</v>
+        <v>-122.17100000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>1012.477711</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.281244</v>
+        <v>0.28124399999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.380000</v>
+        <v>1004.38</v>
       </c>
       <c r="BB12" s="1">
-        <v>-140.216000</v>
+        <v>-140.21600000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>1023.128335</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.284202</v>
+        <v>0.28420200000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.899000</v>
+        <v>-221.899</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>1034.210913</v>
+        <v>1034.2109129999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.287281</v>
+        <v>0.28728100000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1126.770000</v>
+        <v>1126.77</v>
       </c>
       <c r="BL12" s="1">
-        <v>-353.114000</v>
+        <v>-353.11399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>1045.174482</v>
+        <v>1045.1744819999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.290326</v>
+        <v>0.29032599999999997</v>
       </c>
       <c r="BP12" s="1">
-        <v>1254.640000</v>
+        <v>1254.6400000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-555.919000</v>
+        <v>-555.91899999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>1056.100853</v>
+        <v>1056.1008529999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.293361</v>
+        <v>0.29336099999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1398.130000</v>
+        <v>1398.13</v>
       </c>
       <c r="BV12" s="1">
-        <v>-772.263000</v>
+        <v>-772.26300000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>1066.851672</v>
@@ -3276,437 +3692,437 @@
         <v>0.296348</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1555.820000</v>
+        <v>1555.82</v>
       </c>
       <c r="CA12" s="1">
-        <v>-998.241000</v>
+        <v>-998.24099999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>1079.096902</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.299749</v>
+        <v>0.29974899999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1953.710000</v>
+        <v>1953.71</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1522.590000</v>
+        <v>-1522.59</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>907.423100</v>
+        <v>907.42309999999998</v>
       </c>
       <c r="B13" s="1">
-        <v>0.252062</v>
+        <v>0.25206200000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>899.608000</v>
+        <v>899.60799999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.469000</v>
+        <v>-198.46899999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>917.850955</v>
       </c>
       <c r="G13" s="1">
-        <v>0.254959</v>
+        <v>0.25495899999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>917.442000</v>
+        <v>917.44200000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.800000</v>
+        <v>-168.8</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>928.319309</v>
+        <v>928.31930899999998</v>
       </c>
       <c r="L13" s="1">
-        <v>0.257866</v>
+        <v>0.25786599999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>940.163000</v>
+        <v>940.16300000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.755000</v>
+        <v>-120.755</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>938.868433</v>
+        <v>938.86843299999998</v>
       </c>
       <c r="Q13" s="1">
         <v>0.260797</v>
       </c>
       <c r="R13" s="1">
-        <v>946.913000</v>
+        <v>946.91300000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.102000</v>
+        <v>-105.102</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>949.679760</v>
+        <v>949.67975999999999</v>
       </c>
       <c r="V13" s="1">
-        <v>0.263800</v>
+        <v>0.26379999999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>953.554000</v>
+        <v>953.55399999999997</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.958800</v>
+        <v>-90.958799999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>960.242035</v>
+        <v>960.24203499999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.266734</v>
+        <v>0.26673400000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.017000</v>
+        <v>961.01700000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.807900</v>
+        <v>-80.807900000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>970.443253</v>
+        <v>970.44325300000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.269568</v>
+        <v>0.26956799999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.013000</v>
+        <v>966.01300000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.983800</v>
+        <v>-79.983800000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>980.649928</v>
+        <v>980.64992800000005</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.272403</v>
+        <v>0.27240300000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.079000</v>
+        <v>974.07899999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.176000</v>
+        <v>-87.176000000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>991.061983</v>
+        <v>991.06198300000005</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.275295</v>
+        <v>0.27529500000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.331000</v>
+        <v>983.33100000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.442000</v>
+        <v>-101.44199999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>1001.772557</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.278270</v>
+        <v>0.27827000000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.770000</v>
+        <v>994.77</v>
       </c>
       <c r="AW13" s="1">
-        <v>-122.161000</v>
+        <v>-122.161</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>1012.893357</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.281359</v>
+        <v>0.28135900000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.390000</v>
+        <v>1004.39</v>
       </c>
       <c r="BB13" s="1">
-        <v>-140.209000</v>
+        <v>-140.209</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>1023.428880</v>
+        <v>1023.42888</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.284286</v>
+        <v>0.28428599999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.928000</v>
+        <v>-221.928</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>1034.570018</v>
+        <v>1034.5700179999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>0.287381</v>
       </c>
       <c r="BK13" s="1">
-        <v>1126.760000</v>
+        <v>1126.76</v>
       </c>
       <c r="BL13" s="1">
-        <v>-353.078000</v>
+        <v>-353.07799999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>1045.598098</v>
+        <v>1045.5980979999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.290444</v>
+        <v>0.29044399999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1254.630000</v>
+        <v>1254.6300000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-555.976000</v>
+        <v>-555.976</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>1056.532406</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.293481</v>
+        <v>0.29348099999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1398.240000</v>
+        <v>1398.24</v>
       </c>
       <c r="BV13" s="1">
-        <v>-772.325000</v>
+        <v>-772.32500000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>1067.266325</v>
+        <v>1067.2663250000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.296463</v>
+        <v>0.29646299999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1555.730000</v>
+        <v>1555.73</v>
       </c>
       <c r="CA13" s="1">
-        <v>-998.129000</v>
+        <v>-998.12900000000002</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>1079.614725</v>
+        <v>1079.6147249999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.299893</v>
+        <v>0.29989300000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1952.050000</v>
+        <v>1952.05</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1523.410000</v>
+        <v>-1523.41</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>907.763320</v>
+        <v>907.76332000000002</v>
       </c>
       <c r="B14" s="1">
-        <v>0.252156</v>
+        <v>0.25215599999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>899.837000</v>
+        <v>899.83699999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.917000</v>
+        <v>-198.917</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>918.196170</v>
+        <v>918.19617000000005</v>
       </c>
       <c r="G14" s="1">
         <v>0.255054</v>
       </c>
       <c r="H14" s="1">
-        <v>917.410000</v>
+        <v>917.41</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.853000</v>
+        <v>-168.85300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>928.970764</v>
+        <v>928.97076400000003</v>
       </c>
       <c r="L14" s="1">
-        <v>0.258047</v>
+        <v>0.25804700000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>940.166000</v>
+        <v>940.16600000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.879000</v>
+        <v>-120.879</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>939.576720</v>
+        <v>939.57672000000002</v>
       </c>
       <c r="Q14" s="1">
         <v>0.260994</v>
       </c>
       <c r="R14" s="1">
-        <v>946.930000</v>
+        <v>946.93</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.141000</v>
+        <v>-105.14100000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>950.066608</v>
+        <v>950.06660799999997</v>
       </c>
       <c r="V14" s="1">
         <v>0.263907</v>
       </c>
       <c r="W14" s="1">
-        <v>953.523000</v>
+        <v>953.52300000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.970600</v>
+        <v>-90.970600000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>960.591714</v>
+        <v>960.59171400000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.266831</v>
+        <v>0.26683099999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.958000</v>
+        <v>960.95799999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.927000</v>
+        <v>-80.927000000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>970.786982</v>
+        <v>970.78698199999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.269663</v>
+        <v>0.26966299999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.004000</v>
+        <v>966.00400000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.032600</v>
+        <v>-80.032600000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>981.001591</v>
+        <v>981.00159099999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.272500</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.086000</v>
+        <v>974.08600000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.176400</v>
+        <v>-87.176400000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>991.476603</v>
+        <v>991.47660299999995</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.275410</v>
+        <v>0.27540999999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.355000</v>
+        <v>983.35500000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.454000</v>
+        <v>-101.45399999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>1002.193195</v>
+        <v>1002.1931949999999</v>
       </c>
       <c r="AU14" s="1">
         <v>0.278387</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.763000</v>
+        <v>994.76300000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-122.170000</v>
+        <v>-122.17</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>1013.195095</v>
@@ -3715,13 +4131,13 @@
         <v>0.281443</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.390000</v>
+        <v>1004.39</v>
       </c>
       <c r="BB14" s="1">
-        <v>-140.210000</v>
+        <v>-140.21</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>1023.794093</v>
@@ -3730,73 +4146,73 @@
         <v>0.284387</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.920000</v>
+        <v>-221.92</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>1034.945985</v>
+        <v>1034.9459850000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.287485</v>
+        <v>0.28748499999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1126.750000</v>
+        <v>1126.75</v>
       </c>
       <c r="BL14" s="1">
-        <v>-353.054000</v>
+        <v>-353.05399999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>1046.004323</v>
+        <v>1046.0043230000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.290557</v>
+        <v>0.29055700000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1254.620000</v>
+        <v>1254.6199999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-555.989000</v>
+        <v>-555.98900000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>1056.952483</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.293598</v>
+        <v>0.29359800000000003</v>
       </c>
       <c r="BU14" s="1">
-        <v>1398.400000</v>
+        <v>1398.4</v>
       </c>
       <c r="BV14" s="1">
-        <v>-772.292000</v>
+        <v>-772.29200000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>1067.722116</v>
+        <v>1067.7221159999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.296589</v>
+        <v>0.29658899999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1555.750000</v>
+        <v>1555.75</v>
       </c>
       <c r="CA14" s="1">
-        <v>-998.161000</v>
+        <v>-998.16099999999994</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>1080.154847</v>
@@ -3805,347 +4221,347 @@
         <v>0.300043</v>
       </c>
       <c r="CE14" s="1">
-        <v>1953.760000</v>
+        <v>1953.76</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1523.970000</v>
+        <v>-1523.97</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>908.414567</v>
+        <v>908.41456700000003</v>
       </c>
       <c r="B15" s="1">
-        <v>0.252337</v>
+        <v>0.25233699999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>899.767000</v>
+        <v>899.76700000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.108000</v>
+        <v>-198.108</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>918.843481</v>
       </c>
       <c r="G15" s="1">
-        <v>0.255234</v>
+        <v>0.25523400000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>916.959000</v>
+        <v>916.95899999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.381000</v>
+        <v>-168.381</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>929.355660</v>
+        <v>929.35565999999994</v>
       </c>
       <c r="L15" s="1">
-        <v>0.258154</v>
+        <v>0.25815399999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>940.196000</v>
+        <v>940.19600000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.931000</v>
+        <v>-120.931</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>939.919454</v>
+        <v>939.91945399999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.261089</v>
+        <v>0.26108900000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>946.937000</v>
+        <v>946.93700000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.171000</v>
+        <v>-105.17100000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>950.409344</v>
+        <v>950.40934400000003</v>
       </c>
       <c r="V15" s="1">
-        <v>0.264003</v>
+        <v>0.26400299999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>953.584000</v>
+        <v>953.58399999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.961900</v>
+        <v>-90.9619</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>960.940898</v>
+        <v>960.94089799999995</v>
       </c>
       <c r="AA15" s="1">
         <v>0.266928</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.993000</v>
+        <v>960.99300000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.837800</v>
+        <v>-80.837800000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>971.130740</v>
+        <v>971.13073999999995</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.269759</v>
+        <v>0.26975900000000003</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.006000</v>
+        <v>966.00599999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.966200</v>
+        <v>-79.966200000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>981.414484</v>
+        <v>981.41448400000002</v>
       </c>
       <c r="AK15" s="1">
         <v>0.272615</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.070000</v>
+        <v>974.07</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.178300</v>
+        <v>-87.178299999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>991.784162</v>
+        <v>991.78416200000004</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.275496</v>
+        <v>0.27549600000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.347000</v>
+        <v>983.34699999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.459000</v>
+        <v>-101.459</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>1002.503197</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.278473</v>
+        <v>0.27847300000000003</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.768000</v>
+        <v>994.76800000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-122.163000</v>
+        <v>-122.163</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>1013.554525</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.281543</v>
+        <v>0.28154299999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.400000</v>
+        <v>1004.4</v>
       </c>
       <c r="BB15" s="1">
-        <v>-140.212000</v>
+        <v>-140.21199999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>1024.157502</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.284488</v>
+        <v>0.28448800000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.924000</v>
+        <v>-221.92400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>1035.324929</v>
+        <v>1035.3249290000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.287590</v>
+        <v>0.28759000000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1126.760000</v>
+        <v>1126.76</v>
       </c>
       <c r="BL15" s="1">
-        <v>-353.113000</v>
+        <v>-353.113</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>1046.424897</v>
+        <v>1046.4248970000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.290674</v>
+        <v>0.29067399999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1254.600000</v>
+        <v>1254.5999999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-556.018000</v>
+        <v>-556.01800000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>1057.374440</v>
+        <v>1057.37444</v>
       </c>
       <c r="BT15" s="1">
         <v>0.293715</v>
       </c>
       <c r="BU15" s="1">
-        <v>1398.510000</v>
+        <v>1398.51</v>
       </c>
       <c r="BV15" s="1">
-        <v>-772.456000</v>
+        <v>-772.45600000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>1068.171492</v>
+        <v>1068.1714919999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.296714</v>
+        <v>0.29671399999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1555.800000</v>
+        <v>1555.8</v>
       </c>
       <c r="CA15" s="1">
-        <v>-998.287000</v>
+        <v>-998.28700000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>1080.694980</v>
+        <v>1080.69498</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.300193</v>
+        <v>0.30019299999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1953.030000</v>
+        <v>1953.03</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1522.190000</v>
+        <v>-1522.19</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>908.795495</v>
+        <v>908.79549499999996</v>
       </c>
       <c r="B16" s="1">
-        <v>0.252443</v>
+        <v>0.25244299999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>899.645000</v>
+        <v>899.64499999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.203000</v>
+        <v>-198.203</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>919.226857</v>
       </c>
       <c r="G16" s="1">
-        <v>0.255341</v>
+        <v>0.25534099999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>917.105000</v>
+        <v>917.10500000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.515000</v>
+        <v>-168.51499999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>929.700417</v>
+        <v>929.70041700000002</v>
       </c>
       <c r="L16" s="1">
-        <v>0.258250</v>
+        <v>0.25824999999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>940.199000</v>
+        <v>940.19899999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.717000</v>
+        <v>-120.717</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>940.257752</v>
+        <v>940.25775199999998</v>
       </c>
       <c r="Q16" s="1">
         <v>0.261183</v>
       </c>
       <c r="R16" s="1">
-        <v>946.939000</v>
+        <v>946.93899999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.110000</v>
+        <v>-105.11</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>950.756047</v>
+        <v>950.75604699999997</v>
       </c>
       <c r="V16" s="1">
-        <v>0.264099</v>
+        <v>0.26409899999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>953.571000</v>
+        <v>953.57100000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.928200</v>
+        <v>-90.928200000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>961.360049</v>
@@ -4154,240 +4570,240 @@
         <v>0.267044</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.946000</v>
+        <v>960.94600000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.748700</v>
+        <v>-80.748699999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>971.538917</v>
+        <v>971.53891699999997</v>
       </c>
       <c r="AF16" s="1">
         <v>0.269872</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.992000</v>
+        <v>965.99199999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.034300</v>
+        <v>-80.034300000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>981.706440</v>
+        <v>981.70644000000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.272696</v>
+        <v>0.27269599999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.085000</v>
+        <v>974.08500000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.166600</v>
+        <v>-87.166600000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>992.145210</v>
+        <v>992.14521000000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.275596</v>
+        <v>0.27559600000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.372000</v>
+        <v>983.37199999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.441000</v>
+        <v>-101.441</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>1002.866234</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.278574</v>
+        <v>0.27857399999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.788000</v>
+        <v>994.78800000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-122.179000</v>
+        <v>-122.179</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>1013.914124</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.281643</v>
+        <v>0.28164299999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.400000</v>
+        <v>1004.4</v>
       </c>
       <c r="BB16" s="1">
-        <v>-140.207000</v>
+        <v>-140.20699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>1024.877323</v>
+        <v>1024.8773229999999</v>
       </c>
       <c r="BE16" s="1">
         <v>0.284688</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.907000</v>
+        <v>-221.90700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>1036.075871</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.287799</v>
+        <v>0.28779900000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1126.760000</v>
+        <v>1126.76</v>
       </c>
       <c r="BL16" s="1">
-        <v>-353.057000</v>
+        <v>-353.05700000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>1046.811778</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.290781</v>
+        <v>0.29078100000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1254.590000</v>
+        <v>1254.5899999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-556.017000</v>
+        <v>-556.01700000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>1057.800146</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.293833</v>
+        <v>0.29383300000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1398.620000</v>
+        <v>1398.62</v>
       </c>
       <c r="BV16" s="1">
-        <v>-772.626000</v>
+        <v>-772.62599999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>1068.626356</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.296841</v>
+        <v>0.29684100000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1555.790000</v>
+        <v>1555.79</v>
       </c>
       <c r="CA16" s="1">
-        <v>-998.150000</v>
+        <v>-998.15</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>1081.539041</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.300428</v>
+        <v>0.30042799999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>1954.190000</v>
+        <v>1954.19</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1524.020000</v>
+        <v>-1524.02</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>909.138764</v>
+        <v>909.13876400000004</v>
       </c>
       <c r="B17" s="1">
-        <v>0.252539</v>
+        <v>0.25253900000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>899.691000</v>
+        <v>899.69100000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.473000</v>
+        <v>-198.47300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>919.575081</v>
+        <v>919.57508099999995</v>
       </c>
       <c r="G17" s="1">
         <v>0.255438</v>
       </c>
       <c r="H17" s="1">
-        <v>917.164000</v>
+        <v>917.16399999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.588000</v>
+        <v>-168.58799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>930.050091</v>
+        <v>930.05009099999995</v>
       </c>
       <c r="L17" s="1">
-        <v>0.258347</v>
+        <v>0.25834699999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.295000</v>
+        <v>940.29499999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.778000</v>
+        <v>-120.77800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>940.673901</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.261298</v>
+        <v>0.26129799999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>946.951000</v>
+        <v>946.95100000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.121000</v>
+        <v>-105.121</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>951.170207</v>
@@ -4396,844 +4812,844 @@
         <v>0.264214</v>
       </c>
       <c r="W17" s="1">
-        <v>953.532000</v>
+        <v>953.53200000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.971100</v>
+        <v>-90.971100000000007</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>961.639265</v>
+        <v>961.63926500000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.267122</v>
+        <v>0.26712200000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.921000</v>
+        <v>960.92100000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.784200</v>
+        <v>-80.784199999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>971.840020</v>
+        <v>971.84001999999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.269956</v>
+        <v>0.26995599999999997</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.038000</v>
+        <v>966.03800000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.961700</v>
+        <v>-79.961699999999993</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>982.053607</v>
+        <v>982.05360700000006</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.272793</v>
+        <v>0.27279300000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.089000</v>
+        <v>974.08900000000006</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.183300</v>
+        <v>-87.183300000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>992.503817</v>
+        <v>992.50381700000003</v>
       </c>
       <c r="AP17" s="1">
         <v>0.275696</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.346000</v>
+        <v>983.346</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.453000</v>
+        <v>-101.453</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>1003.231818</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.278676</v>
+        <v>0.27867599999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.783000</v>
+        <v>994.78300000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-122.158000</v>
+        <v>-122.158</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>1014.631866</v>
+        <v>1014.6318659999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.281842</v>
+        <v>0.28184199999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.400000</v>
+        <v>1004.4</v>
       </c>
       <c r="BB17" s="1">
-        <v>-140.191000</v>
+        <v>-140.191</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>1025.236829</v>
+        <v>1025.2368289999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.284788</v>
+        <v>0.28478799999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.924000</v>
+        <v>-221.92400000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>1036.450879</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.287903</v>
+        <v>0.28790300000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1126.710000</v>
+        <v>1126.71</v>
       </c>
       <c r="BL17" s="1">
-        <v>-353.091000</v>
+        <v>-353.09100000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>1047.225969</v>
+        <v>1047.2259690000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.290896</v>
+        <v>0.29089599999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1254.590000</v>
+        <v>1254.5899999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-555.996000</v>
+        <v>-555.99599999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>1058.524307</v>
+        <v>1058.5243069999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.294035</v>
+        <v>0.29403499999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1398.410000</v>
+        <v>1398.41</v>
       </c>
       <c r="BV17" s="1">
-        <v>-772.813000</v>
+        <v>-772.81299999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>1069.377299</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.297049</v>
+        <v>0.29704900000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1555.710000</v>
+        <v>1555.71</v>
       </c>
       <c r="CA17" s="1">
-        <v>-998.233000</v>
+        <v>-998.23299999999995</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>1081.773778</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.300493</v>
+        <v>0.30049300000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1953.890000</v>
+        <v>1953.89</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1524.130000</v>
+        <v>-1524.13</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>909.483447</v>
+        <v>909.48344699999996</v>
       </c>
       <c r="B18" s="1">
-        <v>0.252634</v>
+        <v>0.25263400000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>899.598000</v>
+        <v>899.59799999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.256000</v>
+        <v>-198.256</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>919.920264</v>
+        <v>919.92026399999997</v>
       </c>
       <c r="G18" s="1">
-        <v>0.255533</v>
+        <v>0.25553300000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>916.949000</v>
+        <v>916.94899999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.323000</v>
+        <v>-168.32300000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>930.473680</v>
+        <v>930.47367999999994</v>
       </c>
       <c r="L18" s="1">
         <v>0.258465</v>
       </c>
       <c r="M18" s="1">
-        <v>940.191000</v>
+        <v>940.19100000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.930000</v>
+        <v>-120.93</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>940.957580</v>
+        <v>940.95758000000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.261377</v>
+        <v>0.26137700000000003</v>
       </c>
       <c r="R18" s="1">
-        <v>946.915000</v>
+        <v>946.91499999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.103000</v>
+        <v>-105.10299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>951.467310</v>
+        <v>951.46731</v>
       </c>
       <c r="V18" s="1">
-        <v>0.264296</v>
+        <v>0.26429599999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>953.514000</v>
+        <v>953.51400000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.966100</v>
+        <v>-90.966099999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>961.986999</v>
+        <v>961.98699899999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.267219</v>
+        <v>0.26721899999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.912000</v>
+        <v>960.91200000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.767100</v>
+        <v>-80.767099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>972.184740</v>
+        <v>972.18474000000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.270051</v>
+        <v>0.27005099999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.020000</v>
+        <v>966.02</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.007700</v>
+        <v>-80.0077</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>982.406261</v>
+        <v>982.40626099999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.272891</v>
+        <v>0.27289099999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.109000</v>
+        <v>974.10900000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.161800</v>
+        <v>-87.161799999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>993.223015</v>
+        <v>993.22301500000003</v>
       </c>
       <c r="AP18" s="1">
         <v>0.275895</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.370000</v>
+        <v>983.37</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.432000</v>
+        <v>-101.432</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>1003.960905</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.278878</v>
+        <v>0.27887800000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.790000</v>
+        <v>994.79</v>
       </c>
       <c r="AW18" s="1">
-        <v>-122.185000</v>
+        <v>-122.185</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>1014.990939</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.281942</v>
+        <v>0.28194200000000003</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.390000</v>
+        <v>1004.39</v>
       </c>
       <c r="BB18" s="1">
-        <v>-140.189000</v>
+        <v>-140.18899999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>1025.599900</v>
+        <v>1025.5998999999999</v>
       </c>
       <c r="BE18" s="1">
         <v>0.284889</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.926000</v>
+        <v>-221.92599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>1036.824857</v>
+        <v>1036.8248570000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.288007</v>
+        <v>0.28800700000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1126.730000</v>
+        <v>1126.73</v>
       </c>
       <c r="BL18" s="1">
-        <v>-353.090000</v>
+        <v>-353.09</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>1047.924303</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.291090</v>
+        <v>0.29109000000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1254.590000</v>
+        <v>1254.5899999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-555.996000</v>
+        <v>-555.99599999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>1058.644834</v>
+        <v>1058.6448339999999</v>
       </c>
       <c r="BT18" s="1">
         <v>0.294068</v>
       </c>
       <c r="BU18" s="1">
-        <v>1398.390000</v>
+        <v>1398.39</v>
       </c>
       <c r="BV18" s="1">
-        <v>-772.897000</v>
+        <v>-772.89700000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>1069.523091</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.297090</v>
+        <v>0.29709000000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1555.780000</v>
+        <v>1555.78</v>
       </c>
       <c r="CA18" s="1">
-        <v>-998.172000</v>
+        <v>-998.17200000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>1082.294083</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.300637</v>
+        <v>0.30063699999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1953.840000</v>
+        <v>1953.84</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1522.710000</v>
+        <v>-1522.71</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>909.908021</v>
+        <v>909.90802099999996</v>
       </c>
       <c r="B19" s="1">
-        <v>0.252752</v>
+        <v>0.25275199999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>899.672000</v>
+        <v>899.67200000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.463000</v>
+        <v>-198.46299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>920.330456</v>
+        <v>920.33045600000003</v>
       </c>
       <c r="G19" s="1">
-        <v>0.255647</v>
+        <v>0.25564700000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>916.889000</v>
+        <v>916.88900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.328000</v>
+        <v>-168.328</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>930.753386</v>
+        <v>930.75338599999998</v>
       </c>
       <c r="L19" s="1">
-        <v>0.258543</v>
+        <v>0.25854300000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>940.198000</v>
+        <v>940.19799999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.705000</v>
+        <v>-120.705</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>941.305307</v>
+        <v>941.30530699999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.261474</v>
+        <v>0.26147399999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>946.972000</v>
+        <v>946.97199999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.104000</v>
+        <v>-105.104</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>951.805582</v>
+        <v>951.80558199999996</v>
       </c>
       <c r="V19" s="1">
-        <v>0.264390</v>
+        <v>0.26439000000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>953.537000</v>
+        <v>953.53700000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.943400</v>
+        <v>-90.943399999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>962.336144</v>
+        <v>962.33614399999999</v>
       </c>
       <c r="AA19" s="1">
         <v>0.267316</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.005000</v>
+        <v>961.005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.837300</v>
+        <v>-80.837299999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>972.861288</v>
+        <v>972.86128799999994</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.270239</v>
+        <v>0.27023900000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.001000</v>
+        <v>966.00099999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.029200</v>
+        <v>-80.029200000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>983.099701</v>
+        <v>983.09970099999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.273083</v>
+        <v>0.27308300000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.103000</v>
+        <v>974.10299999999995</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.185800</v>
+        <v>-87.1858</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>993.610429</v>
+        <v>993.61042899999995</v>
       </c>
       <c r="AP19" s="1">
         <v>0.276003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.353000</v>
+        <v>983.35299999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.431000</v>
+        <v>-101.431</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>1004.347289</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.278985</v>
+        <v>0.27898499999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.787000</v>
+        <v>994.78700000000003</v>
       </c>
       <c r="AW19" s="1">
-        <v>-122.175000</v>
+        <v>-122.175</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>1015.346570</v>
+        <v>1015.34657</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.282041</v>
+        <v>0.28204099999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.420000</v>
+        <v>1004.42</v>
       </c>
       <c r="BB19" s="1">
-        <v>-140.207000</v>
+        <v>-140.20699999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>1026.273468</v>
+        <v>1026.2734680000001</v>
       </c>
       <c r="BE19" s="1">
         <v>0.285076</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.140000</v>
+        <v>1049.1400000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.942000</v>
+        <v>-221.94200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>1037.505836</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.288196</v>
+        <v>0.28819600000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1126.740000</v>
+        <v>1126.74</v>
       </c>
       <c r="BL19" s="1">
-        <v>-353.084000</v>
+        <v>-353.084</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>1048.049295</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.291125</v>
+        <v>0.29112500000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1254.610000</v>
+        <v>1254.6099999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-555.950000</v>
+        <v>-555.95000000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>1059.081313</v>
+        <v>1059.0813129999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.294189</v>
+        <v>0.29418899999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1398.160000</v>
+        <v>1398.16</v>
       </c>
       <c r="BV19" s="1">
-        <v>-772.961000</v>
+        <v>-772.96100000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>1069.944691</v>
+        <v>1069.9446909999999</v>
       </c>
       <c r="BY19" s="1">
         <v>0.297207</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1555.720000</v>
+        <v>1555.72</v>
       </c>
       <c r="CA19" s="1">
-        <v>-998.267000</v>
+        <v>-998.26700000000005</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>1082.811904</v>
+        <v>1082.8119039999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.300781</v>
+        <v>0.30078100000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1953.680000</v>
+        <v>1953.68</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1523.280000</v>
+        <v>-1523.28</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>910.187772</v>
       </c>
       <c r="B20" s="1">
-        <v>0.252830</v>
+        <v>0.25283</v>
       </c>
       <c r="C20" s="1">
-        <v>899.674000</v>
+        <v>899.67399999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.166000</v>
+        <v>-198.166</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>920.609239</v>
       </c>
       <c r="G20" s="1">
-        <v>0.255725</v>
+        <v>0.25572499999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>916.890000</v>
+        <v>916.89</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.477000</v>
+        <v>-168.477</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>931.096619</v>
+        <v>931.09661900000003</v>
       </c>
       <c r="L20" s="1">
-        <v>0.258638</v>
+        <v>0.25863799999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>940.344000</v>
+        <v>940.34400000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.854000</v>
+        <v>-120.854</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>941.655453</v>
+        <v>941.65545299999997</v>
       </c>
       <c r="Q20" s="1">
         <v>0.261571</v>
       </c>
       <c r="R20" s="1">
-        <v>946.988000</v>
+        <v>946.98800000000006</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.162000</v>
+        <v>-105.16200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>952.152781</v>
       </c>
       <c r="V20" s="1">
-        <v>0.264487</v>
+        <v>0.26448700000000003</v>
       </c>
       <c r="W20" s="1">
-        <v>953.616000</v>
+        <v>953.61599999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.983700</v>
+        <v>-90.983699999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>963.035007</v>
+        <v>963.03500699999995</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.267510</v>
+        <v>0.26751000000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.888000</v>
+        <v>960.88800000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.848900</v>
+        <v>-80.8489</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>973.215394</v>
+        <v>973.21539399999995</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.270338</v>
+        <v>0.27033800000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.035000</v>
+        <v>966.03499999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.010200</v>
+        <v>-80.010199999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>983.450870</v>
+        <v>983.45087000000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.273181</v>
+        <v>0.27318100000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.106000</v>
+        <v>974.10599999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.175100</v>
+        <v>-87.1751</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>993.969526</v>
+        <v>993.96952599999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.276103</v>
+        <v>0.27610299999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.353000</v>
+        <v>983.35299999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.453000</v>
+        <v>-101.453</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>1004.716312</v>
@@ -5242,769 +5658,769 @@
         <v>0.279088</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.788000</v>
+        <v>994.78800000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-122.162000</v>
+        <v>-122.16200000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>1016.007243</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.282224</v>
+        <v>0.28222399999999997</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.400000</v>
+        <v>1004.4</v>
       </c>
       <c r="BB20" s="1">
-        <v>-140.198000</v>
+        <v>-140.19800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>1026.709419</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.285197</v>
+        <v>0.28519699999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.928000</v>
+        <v>-221.928</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>1037.955246</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.288321</v>
+        <v>0.28832099999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1126.760000</v>
+        <v>1126.76</v>
       </c>
       <c r="BL20" s="1">
-        <v>-353.092000</v>
+        <v>-353.09199999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>1048.473870</v>
+        <v>1048.47387</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.291243</v>
+        <v>0.29124299999999997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1254.620000</v>
+        <v>1254.6199999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-555.978000</v>
+        <v>-555.97799999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>1059.508400</v>
+        <v>1059.5083999999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.294308</v>
+        <v>0.29430800000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1397.990000</v>
+        <v>1397.99</v>
       </c>
       <c r="BV20" s="1">
-        <v>-772.966000</v>
+        <v>-772.96600000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>1070.370753</v>
+        <v>1070.3707529999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.297325</v>
+        <v>0.29732500000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1555.750000</v>
+        <v>1555.75</v>
       </c>
       <c r="CA20" s="1">
-        <v>-998.305000</v>
+        <v>-998.30499999999995</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>1083.365440</v>
+        <v>1083.36544</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.300935</v>
+        <v>0.30093500000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1953.930000</v>
+        <v>1953.93</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1523.930000</v>
+        <v>-1523.93</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>910.530007</v>
+        <v>910.53000699999996</v>
       </c>
       <c r="B21" s="1">
-        <v>0.252925</v>
+        <v>0.25292500000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>899.591000</v>
+        <v>899.59100000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.648000</v>
+        <v>-198.648</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>920.955947</v>
+        <v>920.95594700000004</v>
       </c>
       <c r="G21" s="1">
-        <v>0.255821</v>
+        <v>0.25582100000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>916.946000</v>
+        <v>916.94600000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.517000</v>
+        <v>-168.517</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>931.431417</v>
+        <v>931.43141700000001</v>
       </c>
       <c r="L21" s="1">
-        <v>0.258731</v>
+        <v>0.25873099999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>940.102000</v>
+        <v>940.10199999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.756000</v>
+        <v>-120.756</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>942.350861</v>
+        <v>942.35086100000001</v>
       </c>
       <c r="Q21" s="1">
         <v>0.261764</v>
       </c>
       <c r="R21" s="1">
-        <v>946.938000</v>
+        <v>946.93799999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.163000</v>
+        <v>-105.163</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>952.837756</v>
+        <v>952.83775600000001</v>
       </c>
       <c r="V21" s="1">
         <v>0.264677</v>
       </c>
       <c r="W21" s="1">
-        <v>953.616000</v>
+        <v>953.61599999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.991700</v>
+        <v>-90.991699999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>963.381743</v>
+        <v>963.38174300000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.267606</v>
+        <v>0.26760600000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.048000</v>
+        <v>961.048</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.874900</v>
+        <v>-80.874899999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>973.555153</v>
+        <v>973.55515300000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.270432</v>
+        <v>0.27043200000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.033000</v>
+        <v>966.03300000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.029000</v>
+        <v>-80.028999999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>983.791123</v>
+        <v>983.79112299999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.273275</v>
+        <v>0.27327499999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.096000</v>
+        <v>974.096</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.188400</v>
+        <v>-87.188400000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>994.647029</v>
+        <v>994.64702899999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.276291</v>
+        <v>0.27629100000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.391000</v>
+        <v>983.39099999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.439000</v>
+        <v>-101.43899999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>1005.412439</v>
+        <v>1005.4124389999999</v>
       </c>
       <c r="AU21" s="1">
         <v>0.279281</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.767000</v>
+        <v>994.76700000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-122.170000</v>
+        <v>-122.17</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>1016.426394</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.282341</v>
+        <v>0.28234100000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.410000</v>
+        <v>1004.41</v>
       </c>
       <c r="BB21" s="1">
-        <v>-140.224000</v>
+        <v>-140.22399999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>1027.070010</v>
+        <v>1027.0700099999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.285297</v>
+        <v>0.28529700000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.917000</v>
+        <v>-221.917</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>1038.340636</v>
+        <v>1038.3406359999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.288428</v>
+        <v>0.28842800000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1126.760000</v>
+        <v>1126.76</v>
       </c>
       <c r="BL21" s="1">
-        <v>-353.087000</v>
+        <v>-353.08699999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>1048.867693</v>
+        <v>1048.8676929999999</v>
       </c>
       <c r="BO21" s="1">
         <v>0.291352</v>
       </c>
       <c r="BP21" s="1">
-        <v>1254.610000</v>
+        <v>1254.6099999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-556.017000</v>
+        <v>-556.01700000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>1059.924331</v>
+        <v>1059.9243309999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.294423</v>
+        <v>0.29442299999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1397.900000</v>
+        <v>1397.9</v>
       </c>
       <c r="BV21" s="1">
-        <v>-772.781000</v>
+        <v>-772.78099999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>1070.820626</v>
+        <v>1070.8206259999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.297450</v>
+        <v>0.29744999999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1555.810000</v>
+        <v>1555.81</v>
       </c>
       <c r="CA21" s="1">
-        <v>-998.307000</v>
+        <v>-998.30700000000002</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>1083.894703</v>
+        <v>1083.8947029999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.301082</v>
+        <v>0.30108200000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>1953.660000</v>
+        <v>1953.66</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1522.550000</v>
+        <v>-1522.55</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>910.872740</v>
+        <v>910.87274000000002</v>
       </c>
       <c r="B22" s="1">
-        <v>0.253020</v>
+        <v>0.25302000000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>899.676000</v>
+        <v>899.67600000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.976000</v>
+        <v>-197.976</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>921.300167</v>
+        <v>921.30016699999999</v>
       </c>
       <c r="G22" s="1">
-        <v>0.255917</v>
+        <v>0.25591700000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>916.894000</v>
+        <v>916.89400000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.372000</v>
+        <v>-168.37200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>932.131304</v>
       </c>
       <c r="L22" s="1">
-        <v>0.258925</v>
+        <v>0.25892500000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>940.262000</v>
+        <v>940.26199999999994</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.910000</v>
+        <v>-120.91</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>942.699530</v>
+        <v>942.69952999999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.261861</v>
+        <v>0.26186100000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>946.916000</v>
+        <v>946.91600000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.118000</v>
+        <v>-105.11799999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>953.179500</v>
+        <v>953.17949999999996</v>
       </c>
       <c r="V22" s="1">
-        <v>0.264772</v>
+        <v>0.26477200000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>953.561000</v>
+        <v>953.56100000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.988900</v>
+        <v>-90.988900000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>963.732690</v>
+        <v>963.73269000000005</v>
       </c>
       <c r="AA22" s="1">
         <v>0.267704</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.965000</v>
+        <v>960.96500000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.838300</v>
+        <v>-80.838300000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>974.206433</v>
+        <v>974.20643299999995</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.270613</v>
+        <v>0.27061299999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.024000</v>
+        <v>966.024</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.037300</v>
+        <v>-80.037300000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>984.451763</v>
+        <v>984.45176300000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.273459</v>
+        <v>0.27345900000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.089000</v>
+        <v>974.08900000000006</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.184500</v>
+        <v>-87.1845</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>995.072138</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.276409</v>
+        <v>0.27640900000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.363000</v>
+        <v>983.36300000000006</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.457000</v>
+        <v>-101.45699999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>1005.831815</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.279398</v>
+        <v>0.27939799999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.791000</v>
+        <v>994.79100000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-122.185000</v>
+        <v>-122.185</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>1016.805800</v>
+        <v>1016.8058</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.282446</v>
+        <v>0.28244599999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.400000</v>
+        <v>1004.4</v>
       </c>
       <c r="BB22" s="1">
-        <v>-140.209000</v>
+        <v>-140.209</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>1027.436091</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.285399</v>
+        <v>0.28539900000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.140000</v>
+        <v>1049.1400000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.916000</v>
+        <v>-221.916</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>1038.935319</v>
+        <v>1038.9353189999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.288593</v>
+        <v>0.28859299999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1126.760000</v>
+        <v>1126.76</v>
       </c>
       <c r="BL22" s="1">
-        <v>-353.089000</v>
+        <v>-353.089</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>1049.288829</v>
+        <v>1049.2888290000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.291469</v>
+        <v>0.29146899999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1254.600000</v>
+        <v>1254.5999999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-556.003000</v>
+        <v>-556.00300000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>1060.351568</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.294542</v>
+        <v>0.29454200000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1397.850000</v>
+        <v>1397.85</v>
       </c>
       <c r="BV22" s="1">
-        <v>-772.646000</v>
+        <v>-772.64599999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>1071.253138</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.297570</v>
+        <v>0.29757</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1555.840000</v>
+        <v>1555.84</v>
       </c>
       <c r="CA22" s="1">
-        <v>-998.203000</v>
+        <v>-998.20299999999997</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>1084.412495</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.301226</v>
+        <v>0.30122599999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1952.250000</v>
+        <v>1952.25</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1522.710000</v>
+        <v>-1522.71</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>911.554099</v>
+        <v>911.55409899999995</v>
       </c>
       <c r="B23" s="1">
-        <v>0.253209</v>
+        <v>0.25320900000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>899.763000</v>
+        <v>899.76300000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.183000</v>
+        <v>-198.18299999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>921.987106</v>
+        <v>921.98710600000004</v>
       </c>
       <c r="G23" s="1">
         <v>0.256108</v>
       </c>
       <c r="H23" s="1">
-        <v>916.943000</v>
+        <v>916.94299999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.257000</v>
+        <v>-168.25700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>932.476488</v>
+        <v>932.47648800000002</v>
       </c>
       <c r="L23" s="1">
         <v>0.259021</v>
       </c>
       <c r="M23" s="1">
-        <v>939.967000</v>
+        <v>939.96699999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.670000</v>
+        <v>-120.67</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>943.050698</v>
+        <v>943.05069800000001</v>
       </c>
       <c r="Q23" s="1">
         <v>0.261959</v>
       </c>
       <c r="R23" s="1">
-        <v>946.923000</v>
+        <v>946.923</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.109000</v>
+        <v>-105.10899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>953.523724</v>
+        <v>953.52372400000002</v>
       </c>
       <c r="V23" s="1">
-        <v>0.264868</v>
+        <v>0.26486799999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>953.569000</v>
+        <v>953.56899999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.958700</v>
+        <v>-90.958699999999993</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>964.397517</v>
+        <v>964.39751699999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.267888</v>
+        <v>0.26788800000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.967000</v>
+        <v>960.96699999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.874600</v>
+        <v>-80.874600000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>974.585840</v>
+        <v>974.58583999999996</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.270718</v>
+        <v>0.27071800000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.040000</v>
+        <v>966.04</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.000000</v>
+        <v>-80</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>984.843108</v>
+        <v>984.84310800000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.273568</v>
+        <v>0.27356799999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.090000</v>
+        <v>974.09</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.176500</v>
+        <v>-87.176500000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>995.453028</v>
+        <v>995.45302800000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.276515</v>
+        <v>0.27651500000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.330000</v>
+        <v>983.33</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.452000</v>
+        <v>-101.452</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>1006.194886</v>
@@ -6013,255 +6429,255 @@
         <v>0.279499</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.788000</v>
+        <v>994.78800000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-122.168000</v>
+        <v>-122.16800000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>1017.164409</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.282546</v>
+        <v>0.28254600000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.400000</v>
+        <v>1004.4</v>
       </c>
       <c r="BB23" s="1">
-        <v>-140.214000</v>
+        <v>-140.214</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>1027.847273</v>
+        <v>1027.8472730000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.285513</v>
+        <v>0.28551300000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.916000</v>
+        <v>-221.916</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>1039.098032</v>
+        <v>1039.0980320000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.288638</v>
+        <v>0.28863800000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1126.740000</v>
+        <v>1126.74</v>
       </c>
       <c r="BL23" s="1">
-        <v>-353.076000</v>
+        <v>-353.07600000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>1049.688076</v>
+        <v>1049.6880759999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.291580</v>
+        <v>0.29158000000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1254.600000</v>
+        <v>1254.5999999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-556.002000</v>
+        <v>-556.00199999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>1060.781134</v>
+        <v>1060.7811340000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.294661</v>
+        <v>0.29466100000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1397.860000</v>
+        <v>1397.86</v>
       </c>
       <c r="BV23" s="1">
-        <v>-772.530000</v>
+        <v>-772.53</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>1071.673131</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.297687</v>
+        <v>0.29768699999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1555.850000</v>
+        <v>1555.85</v>
       </c>
       <c r="CA23" s="1">
-        <v>-998.197000</v>
+        <v>-998.197</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>1084.928831</v>
+        <v>1084.9288309999999</v>
       </c>
       <c r="CD23" s="1">
         <v>0.301369</v>
       </c>
       <c r="CE23" s="1">
-        <v>1952.360000</v>
+        <v>1952.36</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1524.050000</v>
+        <v>-1524.05</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>911.897476</v>
+        <v>911.89747599999998</v>
       </c>
       <c r="B24" s="1">
         <v>0.253305</v>
       </c>
       <c r="C24" s="1">
-        <v>899.460000</v>
+        <v>899.46</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.216000</v>
+        <v>-198.21600000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>922.332805</v>
+        <v>922.33280500000001</v>
       </c>
       <c r="G24" s="1">
-        <v>0.256204</v>
+        <v>0.25620399999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>917.129000</v>
+        <v>917.12900000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.249000</v>
+        <v>-168.249</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>932.824680</v>
+        <v>932.82467999999994</v>
       </c>
       <c r="L24" s="1">
-        <v>0.259118</v>
+        <v>0.25911800000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>940.201000</v>
+        <v>940.20100000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.982000</v>
+        <v>-120.982</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>943.687599</v>
+        <v>943.68759899999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.262135</v>
+        <v>0.26213500000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>946.959000</v>
+        <v>946.95899999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.076000</v>
+        <v>-105.07599999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>954.170508</v>
+        <v>954.17050800000004</v>
       </c>
       <c r="V24" s="1">
-        <v>0.265047</v>
+        <v>0.26504699999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>953.565000</v>
+        <v>953.56500000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.861200</v>
+        <v>-90.861199999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>964.773020</v>
+        <v>964.77301999999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.267993</v>
+        <v>0.26799299999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.871000</v>
+        <v>960.87099999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.768400</v>
+        <v>-80.7684</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>974.931056</v>
+        <v>974.93105600000001</v>
       </c>
       <c r="AF24" s="1">
         <v>0.270814</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.012000</v>
+        <v>966.01199999999994</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.974800</v>
+        <v>-79.974800000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>985.194801</v>
+        <v>985.19480099999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.273665</v>
+        <v>0.27366499999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.077000</v>
+        <v>974.077</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.148100</v>
+        <v>-87.148099999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>995.813346</v>
+        <v>995.81334600000002</v>
       </c>
       <c r="AP24" s="1">
         <v>0.276615</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.339000</v>
+        <v>983.33900000000006</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.468000</v>
+        <v>-101.468</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>1006.614998</v>
@@ -6270,13 +6686,13 @@
         <v>0.279615</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.791000</v>
+        <v>994.79100000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-122.180000</v>
+        <v>-122.18</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>1017.579559</v>
@@ -6285,619 +6701,620 @@
         <v>0.282661</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.410000</v>
+        <v>1004.41</v>
       </c>
       <c r="BB24" s="1">
-        <v>-140.209000</v>
+        <v>-140.209</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>1028.157737</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.285599</v>
+        <v>0.28559899999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.936000</v>
+        <v>-221.93600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>1039.476092</v>
+        <v>1039.4760920000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.288743</v>
+        <v>0.28874300000000003</v>
       </c>
       <c r="BK24" s="1">
-        <v>1126.770000</v>
+        <v>1126.77</v>
       </c>
       <c r="BL24" s="1">
-        <v>-353.094000</v>
+        <v>-353.09399999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>1050.114636</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.291699</v>
+        <v>0.29169899999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1254.640000</v>
+        <v>1254.6400000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-555.991000</v>
+        <v>-555.99099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>1061.192285</v>
+        <v>1061.1922850000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.294776</v>
+        <v>0.29477599999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1398.010000</v>
+        <v>1398.01</v>
       </c>
       <c r="BV24" s="1">
-        <v>-772.360000</v>
+        <v>-772.36</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>1072.094847</v>
+        <v>1072.0948470000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.297804</v>
+        <v>0.29780400000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1555.760000</v>
+        <v>1555.76</v>
       </c>
       <c r="CA24" s="1">
-        <v>-998.185000</v>
+        <v>-998.18499999999995</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>1085.445165</v>
+        <v>1085.4451650000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>0.301513</v>
+        <v>0.30151299999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1952.320000</v>
+        <v>1952.32</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1523.860000</v>
+        <v>-1523.86</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>912.240211</v>
+        <v>912.24021100000004</v>
       </c>
       <c r="B25" s="1">
-        <v>0.253400</v>
+        <v>0.25340000000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>899.605000</v>
+        <v>899.60500000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.375000</v>
+        <v>-198.375</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>922.666155</v>
       </c>
       <c r="G25" s="1">
-        <v>0.256296</v>
+        <v>0.25629600000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>916.890000</v>
+        <v>916.89</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.223000</v>
+        <v>-168.22300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>933.475463</v>
+        <v>933.47546299999999</v>
       </c>
       <c r="L25" s="1">
         <v>0.259299</v>
       </c>
       <c r="M25" s="1">
-        <v>940.353000</v>
+        <v>940.35299999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.732000</v>
+        <v>-120.732</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>944.093785</v>
+        <v>944.09378500000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.262248</v>
+        <v>0.26224799999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>946.971000</v>
+        <v>946.971</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.115000</v>
+        <v>-105.11499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>954.554908</v>
+        <v>954.55490799999995</v>
       </c>
       <c r="V25" s="1">
         <v>0.265154</v>
       </c>
       <c r="W25" s="1">
-        <v>953.507000</v>
+        <v>953.50699999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.890800</v>
+        <v>-90.890799999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>965.122670</v>
+        <v>965.12266999999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.268090</v>
+        <v>0.26808999999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.999000</v>
+        <v>960.99900000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.872600</v>
+        <v>-80.872600000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>975.278752</v>
+        <v>975.27875200000005</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.270911</v>
+        <v>0.27091100000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.041000</v>
+        <v>966.04100000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.017500</v>
+        <v>-80.017499999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>985.540482</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.273761</v>
+        <v>0.27376099999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.098000</v>
+        <v>974.09799999999996</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.167100</v>
+        <v>-87.167100000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>996.226324</v>
+        <v>996.22632399999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.276730</v>
+        <v>0.27672999999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.385000</v>
+        <v>983.38499999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.443000</v>
+        <v>-101.443</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>1006.924535</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.279701</v>
+        <v>0.27970099999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.769000</v>
+        <v>994.76900000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-122.171000</v>
+        <v>-122.17100000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>1017.882615</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.282745</v>
+        <v>0.28274500000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.410000</v>
+        <v>1004.41</v>
       </c>
       <c r="BB25" s="1">
-        <v>-140.195000</v>
+        <v>-140.19499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>1028.517336</v>
+        <v>1028.5173359999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.285699</v>
+        <v>0.28569899999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.936000</v>
+        <v>-221.93600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>1039.851418</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.288848</v>
+        <v>0.28884799999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1126.760000</v>
+        <v>1126.76</v>
       </c>
       <c r="BL25" s="1">
-        <v>-353.053000</v>
+        <v>-353.053</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>1050.507004</v>
+        <v>1050.5070040000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.291808</v>
+        <v>0.29180800000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1254.590000</v>
+        <v>1254.5899999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-555.984000</v>
+        <v>-555.98400000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>1061.623309</v>
+        <v>1061.6233090000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.294895</v>
+        <v>0.29489500000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1398.050000</v>
+        <v>1398.05</v>
       </c>
       <c r="BV25" s="1">
-        <v>-772.256000</v>
+        <v>-772.25599999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>1072.523149</v>
+        <v>1072.5231490000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.297923</v>
+        <v>0.29792299999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1555.800000</v>
+        <v>1555.8</v>
       </c>
       <c r="CA25" s="1">
-        <v>-998.298000</v>
+        <v>-998.298</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>1086.001181</v>
+        <v>1086.0011810000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.301667</v>
+        <v>0.30166700000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1952.640000</v>
+        <v>1952.64</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1522.420000</v>
+        <v>-1522.42</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>912.882529</v>
+        <v>912.88252899999998</v>
       </c>
       <c r="B26" s="1">
-        <v>0.253578</v>
+        <v>0.25357800000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>899.509000</v>
+        <v>899.50900000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.313000</v>
+        <v>-198.31299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>923.364992</v>
+        <v>923.36499200000003</v>
       </c>
       <c r="G26" s="1">
-        <v>0.256490</v>
+        <v>0.25649</v>
       </c>
       <c r="H26" s="1">
-        <v>917.009000</v>
+        <v>917.00900000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.566000</v>
+        <v>-168.566</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>933.860325</v>
+        <v>933.86032499999999</v>
       </c>
       <c r="L26" s="1">
-        <v>0.259406</v>
+        <v>0.25940600000000003</v>
       </c>
       <c r="M26" s="1">
-        <v>940.139000</v>
+        <v>940.13900000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.786000</v>
+        <v>-120.786</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>944.442967</v>
+        <v>944.44296699999995</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.262345</v>
+        <v>0.26234499999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>946.937000</v>
+        <v>946.93700000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.179000</v>
+        <v>-105.179</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>954.898171</v>
+        <v>954.89817100000005</v>
       </c>
       <c r="V26" s="1">
-        <v>0.265249</v>
+        <v>0.26524900000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>953.544000</v>
+        <v>953.54399999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.892700</v>
+        <v>-90.892700000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>965.472882</v>
+        <v>965.47288200000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.268187</v>
+        <v>0.26818700000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.977000</v>
+        <v>960.97699999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.784700</v>
+        <v>-80.784700000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>975.691422</v>
+        <v>975.69142199999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.271025</v>
+        <v>0.27102500000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.051000</v>
+        <v>966.05100000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.004300</v>
+        <v>-80.004300000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>985.955633</v>
+        <v>985.95563300000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.273877</v>
+        <v>0.27387699999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.091000</v>
+        <v>974.09100000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.194100</v>
+        <v>-87.194100000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>996.534802</v>
+        <v>996.53480200000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.276815</v>
+        <v>0.27681499999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.344000</v>
+        <v>983.34400000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.472000</v>
+        <v>-101.47199999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>1007.290581</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.279803</v>
+        <v>0.27980300000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.772000</v>
+        <v>994.77200000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-122.181000</v>
+        <v>-122.181</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>1018.241222</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.282845</v>
+        <v>0.28284500000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.400000</v>
+        <v>1004.4</v>
       </c>
       <c r="BB26" s="1">
-        <v>-140.212000</v>
+        <v>-140.21199999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>1028.877432</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.285799</v>
+        <v>0.28579900000000003</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.932000</v>
+        <v>-221.93199999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>1040.599384</v>
+        <v>1040.5993840000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.289055</v>
+        <v>0.28905500000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1126.750000</v>
+        <v>1126.75</v>
       </c>
       <c r="BL26" s="1">
-        <v>-353.077000</v>
+        <v>-353.077</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>1050.928103</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.291924</v>
+        <v>0.29192400000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1254.640000</v>
+        <v>1254.6400000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-556.032000</v>
+        <v>-556.03200000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>1062.054860</v>
+        <v>1062.05486</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.295015</v>
+        <v>0.29501500000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>1398.330000</v>
+        <v>1398.33</v>
       </c>
       <c r="BV26" s="1">
-        <v>-772.326000</v>
+        <v>-772.32600000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>1072.936097</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.298038</v>
+        <v>0.29803800000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1555.720000</v>
+        <v>1555.72</v>
       </c>
       <c r="CA26" s="1">
-        <v>-998.196000</v>
+        <v>-998.19600000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>1086.530910</v>
+        <v>1086.5309099999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.301814</v>
+        <v>0.30181400000000003</v>
       </c>
       <c r="CE26" s="1">
-        <v>1952.280000</v>
+        <v>1952.28</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1523.800000</v>
+        <v>-1523.8</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>